--- a/excel/hangar.xlsx
+++ b/excel/hangar.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6AA38E-D5BB-4857-8AC0-8A1093569A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6648A7-AD96-4B64-A17A-2E77E6B1FE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geography attributes" sheetId="2" r:id="rId1"/>
     <sheet name="building attributes" sheetId="3" r:id="rId2"/>
+    <sheet name="portal frame" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>wind_zone</t>
   </si>
@@ -72,6 +73,18 @@
   </si>
   <si>
     <t>floor_height_m</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>IPE</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>HEB</t>
   </si>
 </sst>
 </file>
@@ -471,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -540,4 +553,83 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D7F7FC-1C36-4963-AB92-AC5F70C521A5}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>360</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>450</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>